--- a/Excel/InsuranceData.xlsx
+++ b/Excel/InsuranceData.xlsx
@@ -23,25 +23,25 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>Reliance</t>
-  </si>
-  <si>
-    <t>Student Silver</t>
-  </si>
-  <si>
-    <t>$100,000</t>
-  </si>
-  <si>
     <t>Bajaj Allianz</t>
   </si>
   <si>
     <t>Student Elite</t>
   </si>
   <si>
+    <t>$100,000</t>
+  </si>
+  <si>
     <t>Niva Bupa (formerly known as Max Bupa)</t>
   </si>
   <si>
     <t>Student Travel Assure Pro</t>
+  </si>
+  <si>
+    <t>Care Health</t>
+  </si>
+  <si>
+    <t>Student Explore Plus</t>
   </si>
 </sst>
 </file>
